--- a/data/hotels_by_city/Dallas/Dallas_shard_727.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_727.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1227 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r570803181-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>55638</t>
+  </si>
+  <si>
+    <t>73679</t>
+  </si>
+  <si>
+    <t>570803181</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible. There was a group next to our room having a social gathering and we could hear everything because the walls were so thin. The restroom shower head did not work. The toilet did not flush. The sheets were scratchy. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r569135429-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>569135429</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Good choice for mid range price lodging</t>
+  </si>
+  <si>
+    <t>I was needing a solo, one night stay in a below average priced motel. I read the bad reviews but notice better reviews over last several months so decided to give this motel a try. I was very pleased with attendant, price, and nice clean, newly renovated room. King size bed, digital TV,  micro/frig, and front of room parking.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r568782523-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>568782523</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Pleasant Stay!</t>
+  </si>
+  <si>
+    <t>SUPER 8 CLEBURNE! This place is well kept, clean, safe, kindly staff and most of all my whole stay for 5 days was very accommodating to my needs with daily housekeeping service and very quite surrounding! Thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r554444135-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>554444135</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>newly renovated Super Duper 8</t>
+  </si>
+  <si>
+    <t>Stayed there with family last week in cleburne, and I found Super 8 was a newly renovated property. It was great experience because everything was nice.Staff there was really friendly and helpful. Rooms looked brilliant. Good location, walking restaurant and all grocery nearby. Great place to stay if you're on a vacation with family. I think this the perfect hotel till now.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r553841620-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>553841620</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Great renovated property</t>
+  </si>
+  <si>
+    <t>The rooms were clean and the staff was very attentive. Was a great place to stay and would definitely stay again.There is a fridge and microwave in the room and the hotel is small, so easy to get to the desk. Small breakfast, but they were renovating the lobby the night we stayed, so that may not be normal.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r549783833-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>549783833</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Problematic</t>
+  </si>
+  <si>
+    <t>The place looked great on arrival. The first rooms phone did not work. The second rooms TV did not work, and after 30 minutes of every one in and out of my room, I had to move to a third room. In the third room there was no clear indication on how the shower worked. The staff were very nice, but not very helpful. She went and got one of the owners and they figured out how to get it running. While I had just gotten up, wanting a shower, and people are running in and out of my room again. They did keep it clean. The other problem that I had was of all the rooms they have to offer, they put a couple next to my room who insisted on staying up all night and parting.  So all in all the stay could have been better. TomMoreShow less</t>
+  </si>
+  <si>
+    <t>The place looked great on arrival. The first rooms phone did not work. The second rooms TV did not work, and after 30 minutes of every one in and out of my room, I had to move to a third room. In the third room there was no clear indication on how the shower worked. The staff were very nice, but not very helpful. She went and got one of the owners and they figured out how to get it running. While I had just gotten up, wanting a shower, and people are running in and out of my room again. They did keep it clean. The other problem that I had was of all the rooms they have to offer, they put a couple next to my room who insisted on staying up all night and parting.  So all in all the stay could have been better. TomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r527837886-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>527837886</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>It was only for a night</t>
+  </si>
+  <si>
+    <t>Paula was amazing. I’ll give her a 10. However, been a GM for multiple hotels I know what to look for. I got to my room &amp; it looked nice. Tub faucet was leaking. Wouldn’t stop. I told front desk twice. I pulled the sheet back &amp; there was huge stains on them. It was gross. I ended up buying a small blanket from Walmart so I could sleep. The sheets were clearly used. It was disgusting. I didn’t get any type of compensation , no clean sheets either. The brown blanket had a burn hole too. I never even recieved the WiFi password. Plus the remote barely worked. I got woken up in the morning to a woman banging on my door yelling for some guy. I called front desk because she went to numerous doors banging. Nothing was done. I didn’t feel safe nor was I satisfied. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Paula was amazing. I’ll give her a 10. However, been a GM for multiple hotels I know what to look for. I got to my room &amp; it looked nice. Tub faucet was leaking. Wouldn’t stop. I told front desk twice. I pulled the sheet back &amp; there was huge stains on them. It was gross. I ended up buying a small blanket from Walmart so I could sleep. The sheets were clearly used. It was disgusting. I didn’t get any type of compensation , no clean sheets either. The brown blanket had a burn hole too. I never even recieved the WiFi password. Plus the remote barely worked. I got woken up in the morning to a woman banging on my door yelling for some guy. I called front desk because she went to numerous doors banging. Nothing was done. I didn’t feel safe nor was I satisfied. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r523793811-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>523793811</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r523175111-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>523175111</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r510804750-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>510804750</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>First time there. Very nice. Front desk people very accommodating</t>
+  </si>
+  <si>
+    <t>We travel a lot 175 nights a year and on a budget, we foot the bill on our motels. This one is clean easy to get into, beds are comfortable, good water pressure and nice tv. This is a great place and price we were there for 6 nights and already scheduled or room for next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Jay P, Manager at Super 8 Cleburne, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>We travel a lot 175 nights a year and on a budget, we foot the bill on our motels. This one is clean easy to get into, beds are comfortable, good water pressure and nice tv. This is a great place and price we were there for 6 nights and already scheduled or room for next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r506775053-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>506775053</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Nice Place To Stay</t>
+  </si>
+  <si>
+    <t>I would highly recommend this Super 8. It is very nice for the price the managers were very helpful and accommodating, I only wish I could of got there earlier to take in the pool. Don't hesitate to stay here.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I would highly recommend this Super 8. It is very nice for the price the managers were very helpful and accommodating, I only wish I could of got there earlier to take in the pool. Don't hesitate to stay here.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r502292357-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>502292357</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>I had booked a room at another hotel in Glen Rose, TX.  When I walked in a roach crawled across the floor.  I turned around and left.  I booked a room at this hotel and drove the 20 miles.  I was so glad that I did, in fact I wish I would have booked this place first.  The hotel was clean, the staff was very friendly, the rooms were comfortable and looked very nice.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Jay P, General Manager at Super 8 Cleburne, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>I had booked a room at another hotel in Glen Rose, TX.  When I walked in a roach crawled across the floor.  I turned around and left.  I booked a room at this hotel and drove the 20 miles.  I was so glad that I did, in fact I wish I would have booked this place first.  The hotel was clean, the staff was very friendly, the rooms were comfortable and looked very nice.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r496346676-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>496346676</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>No Shower</t>
+  </si>
+  <si>
+    <t>Checked into our rooms and the first thing we see is burn holes in the bed spread. Little dorm size fridge in one room and a table top in the other room, of which neither one worked.  To add to things one room had a working shower the other did not.  The pool would have been nicer if there wasn't 15 kids in there that were not even guest of the motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Checked into our rooms and the first thing we see is burn holes in the bed spread. Little dorm size fridge in one room and a table top in the other room, of which neither one worked.  To add to things one room had a working shower the other did not.  The pool would have been nicer if there wasn't 15 kids in there that were not even guest of the motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r495155626-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>495155626</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r485490616-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>485490616</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Our room wasn't ADA</t>
+  </si>
+  <si>
+    <t>Ok, so I know it's Cleburne and I shouldn't expect much. But how exactly is room 102 ADA compliant? For some, I'm sure it's fine, but not us. I asked for a shower chair. The clerk said, "No, we do not have a shower chair," and acted like I was an idiot for asking. Also, try entering the room alone in a manual wheelchair and getting on the bed without standing. Some places understand that ADA rooms need lower beds. Reaching the cups above the microwave was also very difficult for my wife.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Ken A, General Manager at Super 8 Cleburne, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Ok, so I know it's Cleburne and I shouldn't expect much. But how exactly is room 102 ADA compliant? For some, I'm sure it's fine, but not us. I asked for a shower chair. The clerk said, "No, we do not have a shower chair," and acted like I was an idiot for asking. Also, try entering the room alone in a manual wheelchair and getting on the bed without standing. Some places understand that ADA rooms need lower beds. Reaching the cups above the microwave was also very difficult for my wife.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r476859617-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>476859617</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Good customer service</t>
+  </si>
+  <si>
+    <t>I am a single mom traveling with two little kids and so I was leery of it would be a safe place for the price. But it was excellent, I felt safe and the place was kept nice. The staff was friendly and tried to make sure we got what we needed, including inspecting and then opening the swimming pool when it had been locked up for cleaning. He could have just said it was closed but he checked to see if it was ready for us and then went back to get his keys. It's the little things that count. The breakfast was not really our choice, it was mostly sugary sweet things we don't usually eat but that's my only complaint, but that's a minor issue. MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a single mom traveling with two little kids and so I was leery of it would be a safe place for the price. But it was excellent, I felt safe and the place was kept nice. The staff was friendly and tried to make sure we got what we needed, including inspecting and then opening the swimming pool when it had been locked up for cleaning. He could have just said it was closed but he checked to see if it was ready for us and then went back to get his keys. It's the little things that count. The breakfast was not really our choice, it was mostly sugary sweet things we don't usually eat but that's my only complaint, but that's a minor issue. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r474690592-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>474690592</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r473181974-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>473181974</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Cleburne TX Stay</t>
+  </si>
+  <si>
+    <t>While between home closings, we found ourselves without a place to stay &amp; we're pleasantly surprised by the comfort, cleanliness and value of the Super 8. Glad such a small town had that to offer us during this time for our family.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>While between home closings, we found ourselves without a place to stay &amp; we're pleasantly surprised by the comfort, cleanliness and value of the Super 8. Glad such a small town had that to offer us during this time for our family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r464793513-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>464793513</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Nice staff, clean rooms</t>
+  </si>
+  <si>
+    <t>The hotel is located on the west side of Cleburne, on Business 67.  We stayed here so that we could visit Cleburne State Park (15 minutes) and dinosaur Valley State Park (35 minutes). The hotel staff was very courteous and helpful. The hotel is not pet friendly as TripAdvisor says, so don't bring them. The staff is knowledgeable about service animals, feel free to travel with them and stay there. We did not have the breakfast,  but they do offer one. It's located close to food and shops.I would stay here again. It's priced cheaply for what they offer and their staff is courteous and friendly. We stayed in room 130 and it had just been remodeled. The rooms are kind of small but for the price, well worth the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is located on the west side of Cleburne, on Business 67.  We stayed here so that we could visit Cleburne State Park (15 minutes) and dinosaur Valley State Park (35 minutes). The hotel staff was very courteous and helpful. The hotel is not pet friendly as TripAdvisor says, so don't bring them. The staff is knowledgeable about service animals, feel free to travel with them and stay there. We did not have the breakfast,  but they do offer one. It's located close to food and shops.I would stay here again. It's priced cheaply for what they offer and their staff is courteous and friendly. We stayed in room 130 and it had just been remodeled. The rooms are kind of small but for the price, well worth the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r447369439-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>447369439</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>"Great Place to Stay"</t>
+  </si>
+  <si>
+    <t>The hotel is quiet, clean, nice location and the staff are always friendly. Definitely recommend this hotel. This was my 5th stay so far very consistent on cleanliness and they are always willing to help at the front desk. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>The hotel is quiet, clean, nice location and the staff are always friendly. Definitely recommend this hotel. This was my 5th stay so far very consistent on cleanliness and they are always willing to help at the front desk. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r446811114-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>446811114</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r429486721-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>429486721</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>New frequent hotel</t>
+  </si>
+  <si>
+    <t>We visit this city frequently, and now we have a great spot to stay at. The rooms are nicer than the surrounding properties, and they have lower prices than them.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We visit this city frequently, and now we have a great spot to stay at. The rooms are nicer than the surrounding properties, and they have lower prices than them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r429367570-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>429367570</t>
+  </si>
+  <si>
+    <t>2 night stay.</t>
+  </si>
+  <si>
+    <t>I like this hotel. Its quiet, peaceful, uneventful and right off Henderson Street. The main street for Cleburne. Its easy to get to anywhere in town. Overall the town is easy to navigate. The hotel has a pool and a small business center. There is no second floor. Therefore no distractions from above. Staff is friendly. A good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>I like this hotel. Its quiet, peaceful, uneventful and right off Henderson Street. The main street for Cleburne. Its easy to get to anywhere in town. Overall the town is easy to navigate. The hotel has a pool and a small business center. There is no second floor. Therefore no distractions from above. Staff is friendly. A good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r428792858-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>428792858</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Clean room, good check in process, breakfast could be a little better but excellent value on the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean room, good check in process, breakfast could be a little better but excellent value on the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r402926837-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>402926837</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r398864830-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>398864830</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Upscale place if you selling dope out of your room</t>
+  </si>
+  <si>
+    <t>Not what I would expect from a hotel with good trip advisor ratings. Weird oil field art and blue walls, perfect for smoking meth and dreaming about the oil field money. If you should run out of meth i saw several people chilling outside that prob had some on them or atleast could take you down the street to the spot. Weird smell in the room, carpet was damp, lighting was terrible. TV remote didn't work the picture was like from 1992 the old round console tv. Seriously this place is super sketch and i would feel safer sleeping at the park.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r383669445-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>383669445</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Perfect Stay</t>
+  </si>
+  <si>
+    <t>Newly renovated rooms looks great. Have been regularly saying at this hotel from last 2 years and it's been perfect everytime.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r371886496-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>371886496</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Good wifi, clean room, no trouble checking in and out. Wish that they had had some scrambled eggs and sausage with breakfast. Desk personnel was polite. Mattress was firm and comfortable. Air conditioner worked too well, we had to turn it off so we wouldn't freeze to death. But an a/c this powerful would be great for a summer trip. Best of all, ONE hotel in a hundred has a stopper on the tub that actually works, so you can take a bath if you choose. This was one of them. Hooray!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r369822866-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>369822866</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>New Management, Bad Attitude</t>
+  </si>
+  <si>
+    <t>We have been going to this motel for 4 or 5 years and loved it but this time was different.  It was clean as usual (the first day) but just went downhill from there.  They had little or no breakfast food in the mornings,  service was not very good and the place was never swept so the walk ways and parking lot was trashy, and the housecleaning was just making up the bed and taking the dirty towels off.  No refills on soap, toilet paper, kleenex and towels. On top of this, we have just been charged a second time for the visit.  When we talked to the manager, he was very rude and said that we did not pay (even though we have a paid receipt to prove it) and did not want to even look into the problem.  Well, our bank found the first authorized payment to these folks and is helping out.If you choose this motel, watch your bank account carefully for extra charges or your visit being charged more than once!WE WILL NOT BE GOING BACK!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We have been going to this motel for 4 or 5 years and loved it but this time was different.  It was clean as usual (the first day) but just went downhill from there.  They had little or no breakfast food in the mornings,  service was not very good and the place was never swept so the walk ways and parking lot was trashy, and the housecleaning was just making up the bed and taking the dirty towels off.  No refills on soap, toilet paper, kleenex and towels. On top of this, we have just been charged a second time for the visit.  When we talked to the manager, he was very rude and said that we did not pay (even though we have a paid receipt to prove it) and did not want to even look into the problem.  Well, our bank found the first authorized payment to these folks and is helping out.If you choose this motel, watch your bank account carefully for extra charges or your visit being charged more than once!WE WILL NOT BE GOING BACK!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r359765690-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>359765690</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Couldn't have ask for a better place for the price, great...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couldn't have ask for a better place for the price, great customer service, clean room and comfortable beds. Will most definitely stay here again. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r331447395-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>331447395</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r324540480-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>324540480</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Great stay! Great service!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon my arrival I was greeted with a huge smile by the general manager He is very pleasant and polite. The lobby was very clean and uncluttered. My room was clean and bed comfy. The breakfast offered was super 8 Cinnamon roll,  cereal and waffles along with beverages. The eating area was also nice and clean. The whole experience could be explained in 4 words: Clean, friendly, hospitable, affordable. Nice outdoor pool with beautiful seating area to hang out. Would definitely stay here again!! </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r324536626-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>324536626</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here prior to a Spartan Race.Staff - Staff was very nice and accommodating.Room - Room was slightly modernized. Room was fairly dirty. Grease stains on the floor. Saw a roach.Beds - beds were clean. I slept fine, my wife found the beds slightly hard. Overall - OK hotel for the money spent. Would likely spend more next time to avoid. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r322002794-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>322002794</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Super 8</t>
+  </si>
+  <si>
+    <t>I hate to say these things about a place but they are the truth. Me and two other guys stayed here from 10/20/2015 thru 10/22/2015. Their was very little lighting outside,entirely too much loud noises and music going on when we were trying to sleep so we could get up to go to work. The commode in my room was loose in the floor, the shower and the sink were very slow draining,and there was very little breakfast. Coffee,juice,pastries,and cereal. I am going back to Cleburne to work this week but I will not be staying at Super 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ken A, General Manager at Super 8 Cleburne, responded to this reviewResponded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2015</t>
+  </si>
+  <si>
+    <t>I hate to say these things about a place but they are the truth. Me and two other guys stayed here from 10/20/2015 thru 10/22/2015. Their was very little lighting outside,entirely too much loud noises and music going on when we were trying to sleep so we could get up to go to work. The commode in my room was loose in the floor, the shower and the sink were very slow draining,and there was very little breakfast. Coffee,juice,pastries,and cereal. I am going back to Cleburne to work this week but I will not be staying at Super 8.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r319191408-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>319191408</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>A good night's sleep</t>
+  </si>
+  <si>
+    <t>The bed was comfortable, but there were only 3 wimpy pillows for the 2 of us.  The room itself was clean and the desk staff was friendly.  We took one look at the breakfast, then headed straight to the Waffle House in Burleson.  The price fit nicely in our budget and overall, we were very pleased with our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r318717218-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>318717218</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Great, older motel</t>
+  </si>
+  <si>
+    <t>Stayed for 2 nights, very clean and well maintained. Older 1 story motel with outside rooms. Safe area and restaurants and stores close by. Would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r291941648-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>291941648</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Nice stay,  good location to highways. Desk staff were knuckleheads when you could find them. (kids), Don't count on ice or breakfast. Only one ice machine. Room was very nice, bed was good. Pool was cloudy for the two weeks we were there. Price was good but average for the area. Pool was outside which why we chose this hotel over  the la quinta in Joshua. Also the doors are outside instead of a cube with elevators. Easy room access.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r291170094-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>291170094</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Not Fancy - Just Functional</t>
+  </si>
+  <si>
+    <t>Basic hotel with basic amenities, but rooms are ready at check in time, are clean when you arrive, and are cleaned properly during the day. Breakfast is pretty standard, with enough choices to get you through the morning. Good value and budget priced.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r290956488-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>290956488</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>BW Cleburne, TX</t>
+  </si>
+  <si>
+    <t>A nice neat BW location with aging beginning to show in areas of room. Overall was a good room with clean bed clothes and a little lax on amount of linens bet we were OK. Some finish issues were noticed such as bath door frame trim was recently replaced but wall and trim were not painted as of yet, and the towel rack could easily drop linens in toilet if you are not careful, Needs to be corrected to allow shelf to be level and not sloped. TV system took a few rounds to figure out how to operate but I suppose that is not unusual nowdays. Comfy little place with some noise from neighboring C- Store but ok most of the time. Value is good play if you need a place to Stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>A nice neat BW location with aging beginning to show in areas of room. Overall was a good room with clean bed clothes and a little lax on amount of linens bet we were OK. Some finish issues were noticed such as bath door frame trim was recently replaced but wall and trim were not painted as of yet, and the towel rack could easily drop linens in toilet if you are not careful, Needs to be corrected to allow shelf to be level and not sloped. TV system took a few rounds to figure out how to operate but I suppose that is not unusual nowdays. Comfy little place with some noise from neighboring C- Store but ok most of the time. Value is good play if you need a place to Stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r252461401-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>252461401</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Nice for the Price</t>
+  </si>
+  <si>
+    <t>Good location and a great value. Manager was very helpful. Room was clean and comfortable, it is right on the hiway so ask for a room in the back if traffic noise bothers you. As advertised they have a continental breakfast but there are several restaurants close by. Will be staying here again.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r249235868-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>249235868</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>There was no restaurant at the hotel as it said in the Internet description. The soap dispenser was empty. The TV reception was poor. The air filters needed changing. There was a mechanical knocking sound from the back wall that occurred every few minutes all night long. The Continental breakfast was inedible.  I do not know what was in the orange juice dispenser, but it was not orange juice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r245799909-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>245799909</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>Best Western</t>
+  </si>
+  <si>
+    <t>This is a great find for a traveler who does not expect it by traveling down the interstate through a smaller city. Very clean, small but a great value for a great price! Cannot beat this place and I will definitely return there!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r235447865-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>235447865</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Very NICE Property</t>
+  </si>
+  <si>
+    <t>Stayed 10/18/19 for one night.  King size room.  Extremely clean - great bed - very nicely maintained exterior.  In town one night to visit relatives.  Would gladly stay here again.Good location for major highway 67.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r235475505-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>235475505</t>
+  </si>
+  <si>
+    <t>so-so</t>
+  </si>
+  <si>
+    <t>good price for room - might as well skip breakfast- limited food and drink - two juices and coffee - few pastries, cereal and toast available - also can microwave your own sausage and biscuit in microwave  - sticky floor - no one present at front desk most of the time - room clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r234890163-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>234890163</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>Clean and friendly staff</t>
+  </si>
+  <si>
+    <t>It was an older stye hotel so we asked to see a room before staying. It turned out to be clean and quite comfortable.  A nice surprise was that the price was $5 less than had I booked in advance online at the Best Western site.  $49.99 for a king, clean room in these days was remarkable! The owner said that this is a slow time and therefore we lucked out.  Would stay there again without hesitation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r217767084-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>217767084</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Great updated hotel</t>
+  </si>
+  <si>
+    <t>The Smithfield Inn is an older motel  (where you drive up to your room door).  The property is very clean from the parking lot to the pool and appears to be well maintained.  The rooms have been updated to newer carpet, beds, updated vanity and shower areas, flat screen tv, etc.  Our room was clean and comfortable. Nice to see an older motel that has rooms updated like most mid level hotels. Keep up the good work. Will stay again.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r217449496-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>217449496</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>Super clean room very friendly desk clerk the best coffee in the lobby worth the trip to Texas would stay again good location Very reasonable prices left my pillow owner was so kind to mail the pillowcase to me now that is service</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r217242586-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>217242586</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Correction of previous "Loud Door" review</t>
+  </si>
+  <si>
+    <t>I previously wrote a review titled "Loud Door"Which was not  meant for this hotel,I sincerely appologize for the miss-hap.Smithfield Inn was the nicest hotel We stayed in during our entire trip to N.J. from Tx. It was very comfortable and well maintained, for quite a bit less than the other places. It looks like a distance from the highway but really is not. The gentleman that helped us when we were leaving gave us directions that saved time and was much more scenic than the highway route.This hotel had no faults(right down to the little hooks next to the shower for your clothes to hang) and is in a good location for eating,car wash or shopping or just relaxing.MoreShow less</t>
+  </si>
+  <si>
+    <t>I previously wrote a review titled "Loud Door"Which was not  meant for this hotel,I sincerely appologize for the miss-hap.Smithfield Inn was the nicest hotel We stayed in during our entire trip to N.J. from Tx. It was very comfortable and well maintained, for quite a bit less than the other places. It looks like a distance from the highway but really is not. The gentleman that helped us when we were leaving gave us directions that saved time and was much more scenic than the highway route.This hotel had no faults(right down to the little hooks next to the shower for your clothes to hang) and is in a good location for eating,car wash or shopping or just relaxing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r209676833-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>209676833</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>just average</t>
+  </si>
+  <si>
+    <t>The room was good, but the reclyner didn't work.  internet and cable was good, the pool was great but the breakfast was not.  the hot items were cold and sparing, the cerial was stale, and refridgerated items (milk, hard boiled eggs, and yogert) were frozen.  told the front counter staff, but the next day was the same.  The location and cleniness of the exterior was great.  Great point of this hotel was they accepted pets and single story made it easy to walk your dog.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r205992794-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>205992794</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Best Western Near Keene, Texas</t>
+  </si>
+  <si>
+    <t>Hello, if you are visiting the Keene/Cleburne area this is definitely a good hotel to stay at.  The rooms were clean and the beds were very comfortable.  The restroom needed a small fixture but the attendant fixed it immediately and replaced the part with a new one.  All was good.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r202508209-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>202508209</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Excellent Stay!</t>
+  </si>
+  <si>
+    <t>The B W Smithfield Inn is a wonderful place to stay.  We were there 2 nights for Antique Alley and the staff was so accommodating.  They were helpful in every aspect and made our stay like home.  They even let us park our extra car  before we checked in and after we checked out at the hotel while we were shopping.  The breakfast was fine the first day but the offerings the second day were kind of skimpy for our diet.   All in all, we will be staying at this hotel in Sept when we come back for the next Antique Alley.  Good people here@</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r199774855-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>199774855</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Best Western </t>
+  </si>
+  <si>
+    <t>The room was clean, but old and worn down. Breakfast was very bleak. Bed wasn't up to a three-star standard. All in all should be seen as a two-star hotel, which would make more sense. Had nothing to complain about service, so that part was good. I did stay at the La Quinta Inn for the same price a week before and regretted having changed.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r198411453-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>198411453</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We stayed here for a few nights in May 2013 while we had some home repairs. The Best Western's location is super convenient. The management and staff treated us very well and made our stay very enjoyable.Even though the Best Western is located right in town,  it was very quiet! Our room was very clean and the bed was wayyyyy comfortable! Can't go wrong staying here!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r193224284-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>193224284</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>This is a great hotel room for the money.  The room was very clean and comfortable.  The hotel staff were very welcoming and helpful.  I did not have a chance to partake of the free breakfast due to my schedule but it is nice to know I could have.  I highly recommend the hotel to anyone staying in the area.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r179467833-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>179467833</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>A Bad Experience</t>
+  </si>
+  <si>
+    <t>This was not a good experience for us. The property looked good with the exception of the swimming pool and the laundry room. I guess that should have been a big clue. The room itself looked very clean, however, I got bit by something in that room (my husband did not). I had bites all over my face the next day. I did report this to Best Western but they replied that the room had been checked and there was no signs of any bugs. I had to do laundry when I checked in but the laundry room was disgusting. I took a wash cloth from my room and cleaned the top of the washer and dryer in order to put my clothes on there while folding. I'm pretty sure that hadn't been cleaned in quite a while. The pool was green and it was disappointing that there was a review on here for two prior to when we checked in that said the pool was so enjoyable. I doubt that the pool could have gotten like that in a day or two. I hated to write this review because the people managing hadn't been there that long and truly tried to be accommodating to me when I talked to them about my concerns.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>This was not a good experience for us. The property looked good with the exception of the swimming pool and the laundry room. I guess that should have been a big clue. The room itself looked very clean, however, I got bit by something in that room (my husband did not). I had bites all over my face the next day. I did report this to Best Western but they replied that the room had been checked and there was no signs of any bugs. I had to do laundry when I checked in but the laundry room was disgusting. I took a wash cloth from my room and cleaned the top of the washer and dryer in order to put my clothes on there while folding. I'm pretty sure that hadn't been cleaned in quite a while. The pool was green and it was disappointing that there was a review on here for two prior to when we checked in that said the pool was so enjoyable. I doubt that the pool could have gotten like that in a day or two. I hated to write this review because the people managing hadn't been there that long and truly tried to be accommodating to me when I talked to them about my concerns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r179415221-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>179415221</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>i love the Moore Oklahoma best western it is a cleaner and friendlier place and the breakfast is what they said it would be. and i would recommend it to my friends and family as well. and would go there again and again.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r178126070-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>178126070</t>
+  </si>
+  <si>
+    <t>09/22/2013</t>
+  </si>
+  <si>
+    <t>Very Clean, Owners really nice and friendly</t>
+  </si>
+  <si>
+    <t>Hotel was very clean, room was a good size and in a great location.  It looked newly remodeled.  Owners were welcoming!  We came to Cleburne for Antique Alley, stayed 2 nights. We plan on staying there again for our next trip!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r172232009-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>172232009</t>
+  </si>
+  <si>
+    <t>08/14/2013</t>
+  </si>
+  <si>
+    <t>Decent Hotel</t>
+  </si>
+  <si>
+    <t>The Best Western Smithfield Inn is located in the town of Cleburne, TX. The hotel itself is located in the western side of town and is within walking distance of many attractions such as a small mall, movie theater and even a Sonics next door.The rooms are reasonably priced and feature many amenities such as full sized beds, TV, WiFi, shower/bath, coffee maker and even a microwave and fridge. The rooms are cleaned daily and are pretty well maintained.The hotel does feature an outdoor pool as well as a vending machine room and a reasonably sized parking lot with disabled parking.Overall the Smithfield Inn is a very good hotel, and is one of the more cheaper options when staying in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>The Best Western Smithfield Inn is located in the town of Cleburne, TX. The hotel itself is located in the western side of town and is within walking distance of many attractions such as a small mall, movie theater and even a Sonics next door.The rooms are reasonably priced and feature many amenities such as full sized beds, TV, WiFi, shower/bath, coffee maker and even a microwave and fridge. The rooms are cleaned daily and are pretty well maintained.The hotel does feature an outdoor pool as well as a vending machine room and a reasonably sized parking lot with disabled parking.Overall the Smithfield Inn is a very good hotel, and is one of the more cheaper options when staying in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r172155667-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>172155667</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>road trip and reunion</t>
+  </si>
+  <si>
+    <t>I attended a military reunion in Oklahoma City and then traveled to Texas to see old friends.  Your Motel was located midway between the location of the friends whom I had come to visit.  Its location and amenities as well as the price made this motel ideal for my purposes.  I was pushed for time so my stay was brief.  However, if I should ever return to the Cleburne, Texas area I hope to be able to stay at this same motel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r171720469-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>171720469</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>extremely nice</t>
+  </si>
+  <si>
+    <t>From the moment I walked into the front doors, I was impressed. The front desk staff were great, checking in was a breeze. When I got to my room I was not let down, the bed was super comfortable, and the room was spotless. The pool facility was nice after a long day in the sun. I would refer this best western to anyone stopping in the area, staying truly was a treat especially for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r167471475-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>167471475</t>
+  </si>
+  <si>
+    <t>07/13/2013</t>
+  </si>
+  <si>
+    <t>stay at Best Western Cleburne,Tx</t>
+  </si>
+  <si>
+    <t>The motel was nice and clean everything worked . It is a single story property so that was really a plus for us ,we stay in a lot of hotels because we travel a lot so it is important to have a ground floor or an elevator . Just plan on eating breakfast off property</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r166623777-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>166623777</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Good value for your money</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel on 7/1/13 and 7/4/13.  My rating on this hotel is based on the value for your money, it is not up to par with most Best Westerns. The rooms were very clean, and so was the parking lot.  The furnishings were up-dated and I feel that the owner has done an excellent job of up-dating an older hotel.  The breakfast is terrible, very little selection and not fresh, I will plan on going down the road next time for breakfast. The staff was OK.  I will stay here again if in the area, it is a good value for your money.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r162872792-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>162872792</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>Great price for Best Western</t>
+  </si>
+  <si>
+    <t>Everything was great.  The room smelled a little like smoke when we arrived.  It was not a problem for me but I called the front desk just to let them know.  The gentleman offered us another room, but it was not necessary.  I just wanted to make sure they weren't going to charge us a fee thinking we were the ones smoking.  The pool was nice and clean and we had it all to ourselves.  Biscuits and gravy for breakfast....yum.  There were also a nice choice of pastries, cereal, waffles, toast, and oatmeal.  Beds were comfortable and rooms were clean.  Walls seemed a little thin with some noisy neighbors, but thankfully they quited down before it was time to turn in for the night.  All in all a great value for $49/night.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Everything was great.  The room smelled a little like smoke when we arrived.  It was not a problem for me but I called the front desk just to let them know.  The gentleman offered us another room, but it was not necessary.  I just wanted to make sure they weren't going to charge us a fee thinking we were the ones smoking.  The pool was nice and clean and we had it all to ourselves.  Biscuits and gravy for breakfast....yum.  There were also a nice choice of pastries, cereal, waffles, toast, and oatmeal.  Beds were comfortable and rooms were clean.  Walls seemed a little thin with some noisy neighbors, but thankfully they quited down before it was time to turn in for the night.  All in all a great value for $49/night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r137503367-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>137503367</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I will say I have never stayed at a best western so I have nothing to compare this to but the room was very nice with granite-like countertops and shower, matching refrigerator and microwave and the room was stylish and not like a typical "oh this looks like a hotel" decor. Good job and friendly front desk. If ever back in town I will stay again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r134323748-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>134323748</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Great value for the price</t>
+  </si>
+  <si>
+    <t>We stayed at the Best Western Smithfield Inn for one night for a last minute stay. Though it had good reviews, I was a little hesitant to stay there because of the lack of recent reviews. I'm glad I took a chance.The inn is in a nice part of town. The lobby smelled a little funny, but the service was very good. The room was very well maintained and spotless. The air conditioning worked well, and there was a clean, working, mini refrigerator and microwave. Sometimes there are good reasons a motel is one of the least expensive in town. I couldn't figure out why in this case. Save a few dollars and stay here. You'll be glad you did.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Best Western Smithfield Inn for one night for a last minute stay. Though it had good reviews, I was a little hesitant to stay there because of the lack of recent reviews. I'm glad I took a chance.The inn is in a nice part of town. The lobby smelled a little funny, but the service was very good. The room was very well maintained and spotless. The air conditioning worked well, and there was a clean, working, mini refrigerator and microwave. Sometimes there are good reasons a motel is one of the least expensive in town. I couldn't figure out why in this case. Save a few dollars and stay here. You'll be glad you did.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r122338207-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>122338207</t>
+  </si>
+  <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
+    <t>Stayed here on way to San Antonio</t>
+  </si>
+  <si>
+    <t>This is the cleanest motel we have been in, every thing was spotless.  We had a recliner and plenty on room for the laptop with a nice chair.  Bathroom was very clean.  The lady who checked us in was very nice.  Will stay here again.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r13560055-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>13560055</t>
+  </si>
+  <si>
+    <t>02/14/2008</t>
+  </si>
+  <si>
+    <t>This place is a Dump</t>
+  </si>
+  <si>
+    <t>I cannot Believe Best Western would allow this hotel to be part of thier chain. It is by far the worst Best Western I have ever stayed at. It is tremendously overpriced and I booked a non-smoking room and they put me in a smoking room that was horrible. The A/C-Heater did not work. The wireless internet did not work. The room next to mine was occupied by 4 people who thought they were in the "ghetto" because they partied all night long and kept me awake, front desk ignored my pleas to quiet them down so I had to call the local police. There are no Security cameras on the property. Parking lot is laid out terrible. I promptly left this hotel and moved to the Holliday Inn Express which was wonderful.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>I cannot Believe Best Western would allow this hotel to be part of thier chain. It is by far the worst Best Western I have ever stayed at. It is tremendously overpriced and I booked a non-smoking room and they put me in a smoking room that was horrible. The A/C-Heater did not work. The wireless internet did not work. The room next to mine was occupied by 4 people who thought they were in the "ghetto" because they partied all night long and kept me awake, front desk ignored my pleas to quiet them down so I had to call the local police. There are no Security cameras on the property. Parking lot is laid out terrible. I promptly left this hotel and moved to the Holliday Inn Express which was wonderful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r7713388-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>7713388</t>
+  </si>
+  <si>
+    <t>05/28/2007</t>
+  </si>
+  <si>
+    <t>maid opened door on my wife, then owner opened door on my wife.</t>
+  </si>
+  <si>
+    <t>I have had several two star experiences with this hotel, but the last straw was the cleaning maid opening the door on my wife. I had left for business around 7am and at 8am the door opened much to my wife's dismay. After bowing and apologizing, the maid backed out quickly and left. Then at 10am, a man I believe to be the owner opened the door and came in, again, much to the surprise of my wife. Now here is the kicker. I asked the two "warm bodies" at the front desk for an explanation, and here it is: When the cleaning people approach the room, they check for vehicle tags in the parking lot, that match the room number, and come on in. So... because there was no vehicle, in they came! I quite loudly explained that the room was rented until 11:00 and they had no right. No apology, no need to explain further, no compensation, no nothing. Not even a kiss my @$$. So, they got a free peep show, I got nothing. I frequent this area on business as do my co-workers, and we will not stay here again. You better leave your car by your door and walk if you go anywhere! Or you will have visitors. And always use the bar locks, if there are any.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have had several two star experiences with this hotel, but the last straw was the cleaning maid opening the door on my wife. I had left for business around 7am and at 8am the door opened much to my wife's dismay. After bowing and apologizing, the maid backed out quickly and left. Then at 10am, a man I believe to be the owner opened the door and came in, again, much to the surprise of my wife. Now here is the kicker. I asked the two "warm bodies" at the front desk for an explanation, and here it is: When the cleaning people approach the room, they check for vehicle tags in the parking lot, that match the room number, and come on in. So... because there was no vehicle, in they came! I quite loudly explained that the room was rented until 11:00 and they had no right. No apology, no need to explain further, no compensation, no nothing. Not even a kiss my @$$. So, they got a free peep show, I got nothing. I frequent this area on business as do my co-workers, and we will not stay here again. You better leave your car by your door and walk if you go anywhere! Or you will have visitors. And always use the bar locks, if there are any.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r7645356-Super_8_Cleburne-Cleburne_Texas.html</t>
+  </si>
+  <si>
+    <t>7645356</t>
+  </si>
+  <si>
+    <t>05/18/2007</t>
+  </si>
+  <si>
+    <t>Decent for Quick Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for a couple of nights while attending a camp in near by Glen Rose. My room was 106, king non smoking. This was my second time staying at this hotel. What I liked: Very clean, easy access from street, quiet part of town, cable tv, decent size room, recliner, microwave and refridgerator in room.  I didn't like that parking is directly outside your door and all rooms are on ground. I was susposed to have my own space in front of my room, but cars were parked in that space both nights, forcing me to park elsewhere around the back of the building. King size bed was a bit on the hard side though.  Room walls were on the thin side, could hear other rooms tv and loud conversations and when shower was running/toilet flushing. The continential breakfast is pretty meager and basic, but it was well presented and clean. Staff was helpful and quick. For a couple of nights stay, this room was fine. I would be ok staying here again if it suited my purpose.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>I stayed here for a couple of nights while attending a camp in near by Glen Rose. My room was 106, king non smoking. This was my second time staying at this hotel. What I liked: Very clean, easy access from street, quiet part of town, cable tv, decent size room, recliner, microwave and refridgerator in room.  I didn't like that parking is directly outside your door and all rooms are on ground. I was susposed to have my own space in front of my room, but cars were parked in that space both nights, forcing me to park elsewhere around the back of the building. King size bed was a bit on the hard side though.  Room walls were on the thin side, could hear other rooms tv and loud conversations and when shower was running/toilet flushing. The continential breakfast is pretty meager and basic, but it was well presented and clean. Staff was helpful and quick. For a couple of nights stay, this room was fine. I would be ok staying here again if it suited my purpose.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1869,4479 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>104</v>
+      </c>
+      <c r="X12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>119</v>
+      </c>
+      <c r="X13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>119</v>
+      </c>
+      <c r="X14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>119</v>
+      </c>
+      <c r="X15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>140</v>
+      </c>
+      <c r="X16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>140</v>
+      </c>
+      <c r="X17" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>140</v>
+      </c>
+      <c r="X18" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>140</v>
+      </c>
+      <c r="X19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>140</v>
+      </c>
+      <c r="X20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>140</v>
+      </c>
+      <c r="X21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>132</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>140</v>
+      </c>
+      <c r="X22" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>140</v>
+      </c>
+      <c r="X23" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>140</v>
+      </c>
+      <c r="X24" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>140</v>
+      </c>
+      <c r="X25" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" t="s">
+        <v>201</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>103</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>208</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" t="s">
+        <v>217</v>
+      </c>
+      <c r="L30" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>219</v>
+      </c>
+      <c r="O30" t="s">
+        <v>103</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" t="s">
+        <v>225</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>230</v>
+      </c>
+      <c r="O32" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" t="s">
+        <v>235</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>236</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" t="s">
+        <v>240</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>236</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>246</v>
+      </c>
+      <c r="X35" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>250</v>
+      </c>
+      <c r="J36" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" t="s">
+        <v>252</v>
+      </c>
+      <c r="L36" t="s">
+        <v>253</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>236</v>
+      </c>
+      <c r="O36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>255</v>
+      </c>
+      <c r="J37" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" t="s">
+        <v>257</v>
+      </c>
+      <c r="L37" t="s">
+        <v>258</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>236</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>260</v>
+      </c>
+      <c r="J38" t="s">
+        <v>261</v>
+      </c>
+      <c r="K38" t="s">
+        <v>262</v>
+      </c>
+      <c r="L38" t="s">
+        <v>263</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>264</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" t="s">
+        <v>267</v>
+      </c>
+      <c r="K39" t="s">
+        <v>268</v>
+      </c>
+      <c r="L39" t="s">
+        <v>269</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>264</v>
+      </c>
+      <c r="O39" t="s">
+        <v>103</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>271</v>
+      </c>
+      <c r="J40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" t="s">
+        <v>274</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>264</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>277</v>
+      </c>
+      <c r="J41" t="s">
+        <v>278</v>
+      </c>
+      <c r="K41" t="s">
+        <v>279</v>
+      </c>
+      <c r="L41" t="s">
+        <v>280</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>281</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>282</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>283</v>
+      </c>
+      <c r="J42" t="s">
+        <v>284</v>
+      </c>
+      <c r="K42" t="s">
+        <v>285</v>
+      </c>
+      <c r="L42" t="s">
+        <v>286</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>281</v>
+      </c>
+      <c r="O42" t="s">
+        <v>103</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>287</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>288</v>
+      </c>
+      <c r="J43" t="s">
+        <v>289</v>
+      </c>
+      <c r="K43" t="s">
+        <v>290</v>
+      </c>
+      <c r="L43" t="s">
+        <v>291</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>292</v>
+      </c>
+      <c r="O43" t="s">
+        <v>103</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>294</v>
+      </c>
+      <c r="J44" t="s">
+        <v>295</v>
+      </c>
+      <c r="K44" t="s">
+        <v>296</v>
+      </c>
+      <c r="L44" t="s">
+        <v>297</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>298</v>
+      </c>
+      <c r="O44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>299</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>300</v>
+      </c>
+      <c r="J45" t="s">
+        <v>295</v>
+      </c>
+      <c r="K45" t="s">
+        <v>301</v>
+      </c>
+      <c r="L45" t="s">
+        <v>302</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>298</v>
+      </c>
+      <c r="O45" t="s">
+        <v>303</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>304</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>305</v>
+      </c>
+      <c r="J46" t="s">
+        <v>306</v>
+      </c>
+      <c r="K46" t="s">
+        <v>307</v>
+      </c>
+      <c r="L46" t="s">
+        <v>308</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>298</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>310</v>
+      </c>
+      <c r="J47" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" t="s">
+        <v>312</v>
+      </c>
+      <c r="L47" t="s">
+        <v>313</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>314</v>
+      </c>
+      <c r="O47" t="s">
+        <v>303</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>315</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>316</v>
+      </c>
+      <c r="J48" t="s">
+        <v>317</v>
+      </c>
+      <c r="K48" t="s">
+        <v>318</v>
+      </c>
+      <c r="L48" t="s">
+        <v>319</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>321</v>
+      </c>
+      <c r="J49" t="s">
+        <v>322</v>
+      </c>
+      <c r="K49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L49" t="s">
+        <v>324</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>314</v>
+      </c>
+      <c r="O49" t="s">
+        <v>65</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>327</v>
+      </c>
+      <c r="J50" t="s">
+        <v>328</v>
+      </c>
+      <c r="K50" t="s">
+        <v>329</v>
+      </c>
+      <c r="L50" t="s">
+        <v>330</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>331</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>332</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>333</v>
+      </c>
+      <c r="J51" t="s">
+        <v>334</v>
+      </c>
+      <c r="K51" t="s">
+        <v>335</v>
+      </c>
+      <c r="L51" t="s">
+        <v>336</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>337</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>339</v>
+      </c>
+      <c r="J52" t="s">
+        <v>340</v>
+      </c>
+      <c r="K52" t="s">
+        <v>341</v>
+      </c>
+      <c r="L52" t="s">
+        <v>342</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>343</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>344</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>345</v>
+      </c>
+      <c r="J53" t="s">
+        <v>346</v>
+      </c>
+      <c r="K53" t="s">
+        <v>347</v>
+      </c>
+      <c r="L53" t="s">
+        <v>348</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>349</v>
+      </c>
+      <c r="O53" t="s">
+        <v>103</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>350</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>351</v>
+      </c>
+      <c r="J54" t="s">
+        <v>352</v>
+      </c>
+      <c r="K54" t="s">
+        <v>353</v>
+      </c>
+      <c r="L54" t="s">
+        <v>354</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>355</v>
+      </c>
+      <c r="O54" t="s">
+        <v>303</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>357</v>
+      </c>
+      <c r="J55" t="s">
+        <v>358</v>
+      </c>
+      <c r="K55" t="s">
+        <v>359</v>
+      </c>
+      <c r="L55" t="s">
+        <v>360</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>361</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>362</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>363</v>
+      </c>
+      <c r="J56" t="s">
+        <v>364</v>
+      </c>
+      <c r="K56" t="s">
+        <v>365</v>
+      </c>
+      <c r="L56" t="s">
+        <v>366</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>367</v>
+      </c>
+      <c r="O56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>369</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>370</v>
+      </c>
+      <c r="J57" t="s">
+        <v>371</v>
+      </c>
+      <c r="K57" t="s">
+        <v>372</v>
+      </c>
+      <c r="L57" t="s">
+        <v>373</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>374</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>375</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>376</v>
+      </c>
+      <c r="J58" t="s">
+        <v>377</v>
+      </c>
+      <c r="K58" t="s">
+        <v>378</v>
+      </c>
+      <c r="L58" t="s">
+        <v>379</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>374</v>
+      </c>
+      <c r="O58" t="s">
+        <v>303</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>380</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>381</v>
+      </c>
+      <c r="J59" t="s">
+        <v>382</v>
+      </c>
+      <c r="K59" t="s">
+        <v>383</v>
+      </c>
+      <c r="L59" t="s">
+        <v>384</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>385</v>
+      </c>
+      <c r="O59" t="s">
+        <v>65</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>387</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>388</v>
+      </c>
+      <c r="J60" t="s">
+        <v>389</v>
+      </c>
+      <c r="K60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L60" t="s">
+        <v>391</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>367</v>
+      </c>
+      <c r="O60" t="s">
+        <v>303</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>392</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>393</v>
+      </c>
+      <c r="J61" t="s">
+        <v>394</v>
+      </c>
+      <c r="K61" t="s">
+        <v>395</v>
+      </c>
+      <c r="L61" t="s">
+        <v>396</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>367</v>
+      </c>
+      <c r="O61" t="s">
+        <v>303</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>398</v>
+      </c>
+      <c r="J62" t="s">
+        <v>399</v>
+      </c>
+      <c r="K62" t="s">
+        <v>400</v>
+      </c>
+      <c r="L62" t="s">
+        <v>401</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>385</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>402</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>403</v>
+      </c>
+      <c r="J63" t="s">
+        <v>404</v>
+      </c>
+      <c r="K63" t="s">
+        <v>405</v>
+      </c>
+      <c r="L63" t="s">
+        <v>406</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>385</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>407</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>408</v>
+      </c>
+      <c r="J64" t="s">
+        <v>409</v>
+      </c>
+      <c r="K64" t="s">
+        <v>410</v>
+      </c>
+      <c r="L64" t="s">
+        <v>411</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>412</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>414</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" t="s">
+        <v>416</v>
+      </c>
+      <c r="K65" t="s">
+        <v>417</v>
+      </c>
+      <c r="L65" t="s">
+        <v>418</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>419</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>420</v>
+      </c>
+      <c r="J66" t="s">
+        <v>421</v>
+      </c>
+      <c r="K66" t="s">
+        <v>422</v>
+      </c>
+      <c r="L66" t="s">
+        <v>423</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>425</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>426</v>
+      </c>
+      <c r="J67" t="s">
+        <v>427</v>
+      </c>
+      <c r="K67" t="s">
+        <v>428</v>
+      </c>
+      <c r="L67" t="s">
+        <v>429</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>430</v>
+      </c>
+      <c r="O67" t="s">
+        <v>65</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>431</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>432</v>
+      </c>
+      <c r="J68" t="s">
+        <v>433</v>
+      </c>
+      <c r="K68" t="s">
+        <v>434</v>
+      </c>
+      <c r="L68" t="s">
+        <v>435</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>436</v>
+      </c>
+      <c r="O68" t="s">
+        <v>103</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>438</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>439</v>
+      </c>
+      <c r="J69" t="s">
+        <v>440</v>
+      </c>
+      <c r="K69" t="s">
+        <v>441</v>
+      </c>
+      <c r="L69" t="s">
+        <v>442</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35622</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>444</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>445</v>
+      </c>
+      <c r="J70" t="s">
+        <v>446</v>
+      </c>
+      <c r="K70" t="s">
+        <v>447</v>
+      </c>
+      <c r="L70" t="s">
+        <v>448</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>449</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>450</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_727.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_727.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Claudia G</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>S2095JXbillb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r569135429-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Anna0678</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r568782523-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>gheemam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r554444135-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>chill15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r553841620-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>O8951YEtome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r549783833-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>The place looked great on arrival. The first rooms phone did not work. The second rooms TV did not work, and after 30 minutes of every one in and out of my room, I had to move to a third room. In the third room there was no clear indication on how the shower worked. The staff were very nice, but not very helpful. She went and got one of the owners and they figured out how to get it running. While I had just gotten up, wanting a shower, and people are running in and out of my room again. They did keep it clean. The other problem that I had was of all the rooms they have to offer, they put a couple next to my room who insisted on staying up all night and parting.  So all in all the stay could have been better. TomMore</t>
   </si>
   <si>
+    <t>karmalitap2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r527837886-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>Paula was amazing. I’ll give her a 10. However, been a GM for multiple hotels I know what to look for. I got to my room &amp; it looked nice. Tub faucet was leaking. Wouldn’t stop. I told front desk twice. I pulled the sheet back &amp; there was huge stains on them. It was gross. I ended up buying a small blanket from Walmart so I could sleep. The sheets were clearly used. It was disgusting. I didn’t get any type of compensation , no clean sheets either. The brown blanket had a burn hole too. I never even recieved the WiFi password. Plus the remote barely worked. I got woken up in the morning to a woman banging on my door yelling for some guy. I called front desk because she went to numerous doors banging. Nothing was done. I didn’t feel safe nor was I satisfied. More</t>
   </si>
   <si>
+    <t>David C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r523793811-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -300,6 +324,9 @@
     <t>09/12/2017</t>
   </si>
   <si>
+    <t>stevenlG8965ON</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r523175111-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -309,6 +336,9 @@
     <t>09/10/2017</t>
   </si>
   <si>
+    <t>R545KSchrish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r510804750-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -339,6 +369,9 @@
     <t>We travel a lot 175 nights a year and on a budget, we foot the bill on our motels. This one is clean easy to get into, beds are comfortable, good water pressure and nice tv. This is a great place and price we were there for 6 nights and already scheduled or room for next year.More</t>
   </si>
   <si>
+    <t>brucesP9488KB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r506775053-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -360,6 +393,9 @@
     <t>I would highly recommend this Super 8. It is very nice for the price the managers were very helpful and accommodating, I only wish I could of got there earlier to take in the pool. Don't hesitate to stay here.  More</t>
   </si>
   <si>
+    <t>W5196ZLstepheng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r502292357-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -384,6 +420,9 @@
     <t>I had booked a room at another hotel in Glen Rose, TX.  When I walked in a roach crawled across the floor.  I turned around and left.  I booked a room at this hotel and drove the 20 miles.  I was so glad that I did, in fact I wish I would have booked this place first.  The hotel was clean, the staff was very friendly, the rooms were comfortable and looked very nice.  More</t>
   </si>
   <si>
+    <t>englemanb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r496346676-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -405,6 +444,9 @@
     <t>Checked into our rooms and the first thing we see is burn holes in the bed spread. Little dorm size fridge in one room and a table top in the other room, of which neither one worked.  To add to things one room had a working shower the other did not.  The pool would have been nicer if there wasn't 15 kids in there that were not even guest of the motel.More</t>
   </si>
   <si>
+    <t>535z431</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r495155626-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -420,6 +462,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>frobozzj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r485490616-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -447,6 +492,9 @@
     <t>Ok, so I know it's Cleburne and I shouldn't expect much. But how exactly is room 102 ADA compliant? For some, I'm sure it's fine, but not us. I asked for a shower chair. The clerk said, "No, we do not have a shower chair," and acted like I was an idiot for asking. Also, try entering the room alone in a manual wheelchair and getting on the bed without standing. Some places understand that ADA rooms need lower beds. Reaching the cups above the microwave was also very difficult for my wife.More</t>
   </si>
   <si>
+    <t>das171</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r476859617-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -465,6 +513,9 @@
     <t>I am a single mom traveling with two little kids and so I was leery of it would be a safe place for the price. But it was excellent, I felt safe and the place was kept nice. The staff was friendly and tried to make sure we got what we needed, including inspecting and then opening the swimming pool when it had been locked up for cleaning. He could have just said it was closed but he checked to see if it was ready for us and then went back to get his keys. It's the little things that count. The breakfast was not really our choice, it was mostly sugary sweet things we don't usually eat but that's my only complaint, but that's a minor issue. More</t>
   </si>
   <si>
+    <t>359donaldj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r474690592-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -474,6 +525,9 @@
     <t>04/11/2017</t>
   </si>
   <si>
+    <t>J2633IXrober</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r473181974-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -495,6 +549,9 @@
     <t>While between home closings, we found ourselves without a place to stay &amp; we're pleasantly surprised by the comfort, cleanliness and value of the Super 8. Glad such a small town had that to offer us during this time for our family.More</t>
   </si>
   <si>
+    <t>PyxienTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r464793513-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -513,6 +570,9 @@
     <t>The hotel is located on the west side of Cleburne, on Business 67.  We stayed here so that we could visit Cleburne State Park (15 minutes) and dinosaur Valley State Park (35 minutes). The hotel staff was very courteous and helpful. The hotel is not pet friendly as TripAdvisor says, so don't bring them. The staff is knowledgeable about service animals, feel free to travel with them and stay there. We did not have the breakfast,  but they do offer one. It's located close to food and shops.I would stay here again. It's priced cheaply for what they offer and their staff is courteous and friendly. We stayed in room 130 and it had just been remodeled. The rooms are kind of small but for the price, well worth the money.More</t>
   </si>
   <si>
+    <t>ATraveler365</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r447369439-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -534,6 +594,9 @@
     <t>The hotel is quiet, clean, nice location and the staff are always friendly. Definitely recommend this hotel. This was my 5th stay so far very consistent on cleanliness and they are always willing to help at the front desk. More</t>
   </si>
   <si>
+    <t>ericfV8230IM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r446811114-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -543,6 +606,9 @@
     <t>12/26/2016</t>
   </si>
   <si>
+    <t>Meiko_Aku</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r429486721-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -564,6 +630,9 @@
     <t>We visit this city frequently, and now we have a great spot to stay at. The rooms are nicer than the surrounding properties, and they have lower prices than them.More</t>
   </si>
   <si>
+    <t>Juan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r429367570-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -579,6 +648,9 @@
     <t>I like this hotel. Its quiet, peaceful, uneventful and right off Henderson Street. The main street for Cleburne. Its easy to get to anywhere in town. Overall the town is easy to navigate. The hotel has a pool and a small business center. There is no second floor. Therefore no distractions from above. Staff is friendly. A good value.More</t>
   </si>
   <si>
+    <t>janmO2603OR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r428792858-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -597,6 +669,9 @@
     <t>Clean room, good check in process, breakfast could be a little better but excellent value on the room.More</t>
   </si>
   <si>
+    <t>davidcD4174SV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r402926837-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -609,6 +684,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Gideon K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r398864830-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -627,6 +705,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Roadtrip2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r383669445-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -645,6 +726,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>texasgal149</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r371886496-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -660,6 +744,9 @@
     <t>Good wifi, clean room, no trouble checking in and out. Wish that they had had some scrambled eggs and sausage with breakfast. Desk personnel was polite. Mattress was firm and comfortable. Air conditioner worked too well, we had to turn it off so we wouldn't freeze to death. But an a/c this powerful would be great for a summer trip. Best of all, ONE hotel in a hundred has a stopper on the tub that actually works, so you can take a bath if you choose. This was one of them. Hooray!</t>
   </si>
   <si>
+    <t>saintedcajun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r369822866-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -681,6 +768,9 @@
     <t>We have been going to this motel for 4 or 5 years and loved it but this time was different.  It was clean as usual (the first day) but just went downhill from there.  They had little or no breakfast food in the mornings,  service was not very good and the place was never swept so the walk ways and parking lot was trashy, and the housecleaning was just making up the bed and taking the dirty towels off.  No refills on soap, toilet paper, kleenex and towels. On top of this, we have just been charged a second time for the visit.  When we talked to the manager, he was very rude and said that we did not pay (even though we have a paid receipt to prove it) and did not want to even look into the problem.  Well, our bank found the first authorized payment to these folks and is helping out.If you choose this motel, watch your bank account carefully for extra charges or your visit being charged more than once!WE WILL NOT BE GOING BACK!More</t>
   </si>
   <si>
+    <t>Cheryl P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r359765690-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -699,6 +789,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>bcknerr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r331447395-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -711,6 +804,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Fether E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r324540480-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -729,6 +825,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>chadg311</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r324536626-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -741,6 +840,9 @@
     <t xml:space="preserve">Stayed here prior to a Spartan Race.Staff - Staff was very nice and accommodating.Room - Room was slightly modernized. Room was fairly dirty. Grease stains on the floor. Saw a roach.Beds - beds were clean. I slept fine, my wife found the beds slightly hard. Overall - OK hotel for the money spent. Would likely spend more next time to avoid. </t>
   </si>
   <si>
+    <t>135parkerd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r322002794-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -765,6 +867,9 @@
     <t>I hate to say these things about a place but they are the truth. Me and two other guys stayed here from 10/20/2015 thru 10/22/2015. Their was very little lighting outside,entirely too much loud noises and music going on when we were trying to sleep so we could get up to go to work. The commode in my room was loose in the floor, the shower and the sink were very slow draining,and there was very little breakfast. Coffee,juice,pastries,and cereal. I am going back to Cleburne to work this week but I will not be staying at Super 8.More</t>
   </si>
   <si>
+    <t>Marci P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r319191408-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -780,6 +885,9 @@
     <t>The bed was comfortable, but there were only 3 wimpy pillows for the 2 of us.  The room itself was clean and the desk staff was friendly.  We took one look at the breakfast, then headed straight to the Waffle House in Burleson.  The price fit nicely in our budget and overall, we were very pleased with our stay.</t>
   </si>
   <si>
+    <t>Tim T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r318717218-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -795,6 +903,9 @@
     <t>Stayed for 2 nights, very clean and well maintained. Older 1 story motel with outside rooms. Safe area and restaurants and stores close by. Would stay here again.</t>
   </si>
   <si>
+    <t>Beverly Forsyth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r291941648-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -813,6 +924,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Playsgolf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r291170094-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -828,6 +942,9 @@
     <t>Basic hotel with basic amenities, but rooms are ready at check in time, are clean when you arrive, and are cleaned properly during the day. Breakfast is pretty standard, with enough choices to get you through the morning. Good value and budget priced.</t>
   </si>
   <si>
+    <t>Howard A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r290956488-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -846,6 +963,9 @@
     <t>A nice neat BW location with aging beginning to show in areas of room. Overall was a good room with clean bed clothes and a little lax on amount of linens bet we were OK. Some finish issues were noticed such as bath door frame trim was recently replaced but wall and trim were not painted as of yet, and the towel rack could easily drop linens in toilet if you are not careful, Needs to be corrected to allow shelf to be level and not sloped. TV system took a few rounds to figure out how to operate but I suppose that is not unusual nowdays. Comfy little place with some noise from neighboring C- Store but ok most of the time. Value is good play if you need a place to Stay!More</t>
   </si>
   <si>
+    <t>JS243</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r252461401-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -864,6 +984,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Mary J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r249235868-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -879,6 +1002,9 @@
     <t>There was no restaurant at the hotel as it said in the Internet description. The soap dispenser was empty. The TV reception was poor. The air filters needed changing. There was a mechanical knocking sound from the back wall that occurred every few minutes all night long. The Continental breakfast was inedible.  I do not know what was in the orange juice dispenser, but it was not orange juice.</t>
   </si>
   <si>
+    <t>B7686UOsuew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r245799909-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1023,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Jane J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r235447865-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1044,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>adijimboy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r235475505-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -930,6 +1062,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Lena3919</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r234890163-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1080,9 @@
     <t>It was an older stye hotel so we asked to see a room before staying. It turned out to be clean and quite comfortable.  A nice surprise was that the price was $5 less than had I booked in advance online at the Best Western site.  $49.99 for a king, clean room in these days was remarkable! The owner said that this is a slow time and therefore we lucked out.  Would stay there again without hesitation.</t>
   </si>
   <si>
+    <t>Brian C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r217767084-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1101,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Kornwallkutie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r217449496-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1119,9 @@
     <t>Super clean room very friendly desk clerk the best coffee in the lobby worth the trip to Texas would stay again good location Very reasonable prices left my pillow owner was so kind to mail the pillowcase to me now that is service</t>
   </si>
   <si>
+    <t>John Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r217242586-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -996,6 +1140,9 @@
     <t>I previously wrote a review titled "Loud Door"Which was not  meant for this hotel,I sincerely appologize for the miss-hap.Smithfield Inn was the nicest hotel We stayed in during our entire trip to N.J. from Tx. It was very comfortable and well maintained, for quite a bit less than the other places. It looks like a distance from the highway but really is not. The gentleman that helped us when we were leaving gave us directions that saved time and was much more scenic than the highway route.This hotel had no faults(right down to the little hooks next to the shower for your clothes to hang) and is in a good location for eating,car wash or shopping or just relaxing.More</t>
   </si>
   <si>
+    <t>Fara R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r209676833-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1161,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Ruth H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r205992794-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1200,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>oreverendo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r199774855-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1221,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>sumsully</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r198411453-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1242,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Stephanie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r193224284-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1263,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>SassySan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r179467833-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1287,9 @@
     <t>This was not a good experience for us. The property looked good with the exception of the swimming pool and the laundry room. I guess that should have been a big clue. The room itself looked very clean, however, I got bit by something in that room (my husband did not). I had bites all over my face the next day. I did report this to Best Western but they replied that the room had been checked and there was no signs of any bugs. I had to do laundry when I checked in but the laundry room was disgusting. I took a wash cloth from my room and cleaned the top of the washer and dryer in order to put my clothes on there while folding. I'm pretty sure that hadn't been cleaned in quite a while. The pool was green and it was disappointing that there was a review on here for two prior to when we checked in that said the pool was so enjoyable. I doubt that the pool could have gotten like that in a day or two. I hated to write this review because the people managing hadn't been there that long and truly tried to be accommodating to me when I talked to them about my concerns.More</t>
   </si>
   <si>
+    <t>John A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r179415221-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1308,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>CarlaM103</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r178126070-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1326,9 @@
     <t>Hotel was very clean, room was a good size and in a great location.  It looked newly remodeled.  Owners were welcoming!  We came to Cleburne for Antique Alley, stayed 2 nights. We plan on staying there again for our next trip!</t>
   </si>
   <si>
+    <t>Natonstan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r172232009-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1350,9 @@
     <t>The Best Western Smithfield Inn is located in the town of Cleburne, TX. The hotel itself is located in the western side of town and is within walking distance of many attractions such as a small mall, movie theater and even a Sonics next door.The rooms are reasonably priced and feature many amenities such as full sized beds, TV, WiFi, shower/bath, coffee maker and even a microwave and fridge. The rooms are cleaned daily and are pretty well maintained.The hotel does feature an outdoor pool as well as a vending machine room and a reasonably sized parking lot with disabled parking.Overall the Smithfield Inn is a very good hotel, and is one of the more cheaper options when staying in the area.More</t>
   </si>
   <si>
+    <t>Steven B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r172155667-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1194,6 +1368,9 @@
     <t>I attended a military reunion in Oklahoma City and then traveled to Texas to see old friends.  Your Motel was located midway between the location of the friends whom I had come to visit.  Its location and amenities as well as the price made this motel ideal for my purposes.  I was pushed for time so my stay was brief.  However, if I should ever return to the Cleburne, Texas area I hope to be able to stay at this same motel.</t>
   </si>
   <si>
+    <t>sam592</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r171720469-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1209,6 +1386,9 @@
     <t>From the moment I walked into the front doors, I was impressed. The front desk staff were great, checking in was a breeze. When I got to my room I was not let down, the bed was super comfortable, and the room was spotless. The pool facility was nice after a long day in the sun. I would refer this best western to anyone stopping in the area, staying truly was a treat especially for the price.</t>
   </si>
   <si>
+    <t>Lura F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r167471475-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1224,6 +1404,9 @@
     <t>The motel was nice and clean everything worked . It is a single story property so that was really a plus for us ,we stay in a lot of hotels because we travel a lot so it is important to have a ground floor or an elevator . Just plan on eating breakfast off property</t>
   </si>
   <si>
+    <t>greenbulletblues</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r166623777-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1239,6 +1422,9 @@
     <t>I stayed at this hotel on 7/1/13 and 7/4/13.  My rating on this hotel is based on the value for your money, it is not up to par with most Best Westerns. The rooms were very clean, and so was the parking lot.  The furnishings were up-dated and I feel that the owner has done an excellent job of up-dating an older hotel.  The breakfast is terrible, very little selection and not fresh, I will plan on going down the road next time for breakfast. The staff was OK.  I will stay here again if in the area, it is a good value for your money.</t>
   </si>
   <si>
+    <t>jaxxxon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r162872792-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1446,9 @@
     <t>Everything was great.  The room smelled a little like smoke when we arrived.  It was not a problem for me but I called the front desk just to let them know.  The gentleman offered us another room, but it was not necessary.  I just wanted to make sure they weren't going to charge us a fee thinking we were the ones smoking.  The pool was nice and clean and we had it all to ourselves.  Biscuits and gravy for breakfast....yum.  There were also a nice choice of pastries, cereal, waffles, toast, and oatmeal.  Beds were comfortable and rooms were clean.  Walls seemed a little thin with some noisy neighbors, but thankfully they quited down before it was time to turn in for the night.  All in all a great value for $49/night.More</t>
   </si>
   <si>
+    <t>lovin-life3314</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r137503367-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1464,9 @@
     <t>I will say I have never stayed at a best western so I have nothing to compare this to but the room was very nice with granite-like countertops and shower, matching refrigerator and microwave and the room was stylish and not like a typical "oh this looks like a hotel" decor. Good job and friendly front desk. If ever back in town I will stay again</t>
   </si>
   <si>
+    <t>ltdayun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r134323748-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1485,9 @@
     <t>We stayed at the Best Western Smithfield Inn for one night for a last minute stay. Though it had good reviews, I was a little hesitant to stay there because of the lack of recent reviews. I'm glad I took a chance.The inn is in a nice part of town. The lobby smelled a little funny, but the service was very good. The room was very well maintained and spotless. The air conditioning worked well, and there was a clean, working, mini refrigerator and microwave. Sometimes there are good reasons a motel is one of the least expensive in town. I couldn't figure out why in this case. Save a few dollars and stay here. You'll be glad you did.  More</t>
   </si>
   <si>
+    <t>LarryE108</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r122338207-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1311,6 +1506,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Todco250</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r13560055-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1332,6 +1530,9 @@
     <t>I cannot Believe Best Western would allow this hotel to be part of thier chain. It is by far the worst Best Western I have ever stayed at. It is tremendously overpriced and I booked a non-smoking room and they put me in a smoking room that was horrible. The A/C-Heater did not work. The wireless internet did not work. The room next to mine was occupied by 4 people who thought they were in the "ghetto" because they partied all night long and kept me awake, front desk ignored my pleas to quiet them down so I had to call the local police. There are no Security cameras on the property. Parking lot is laid out terrible. I promptly left this hotel and moved to the Holliday Inn Express which was wonderful.More</t>
   </si>
   <si>
+    <t>Eye4NEye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r7713388-Super_8_Cleburne-Cleburne_Texas.html</t>
   </si>
   <si>
@@ -1348,6 +1549,9 @@
   </si>
   <si>
     <t>I have had several two star experiences with this hotel, but the last straw was the cleaning maid opening the door on my wife. I had left for business around 7am and at 8am the door opened much to my wife's dismay. After bowing and apologizing, the maid backed out quickly and left. Then at 10am, a man I believe to be the owner opened the door and came in, again, much to the surprise of my wife. Now here is the kicker. I asked the two "warm bodies" at the front desk for an explanation, and here it is: When the cleaning people approach the room, they check for vehicle tags in the parking lot, that match the room number, and come on in. So... because there was no vehicle, in they came! I quite loudly explained that the room was rented until 11:00 and they had no right. No apology, no need to explain further, no compensation, no nothing. Not even a kiss my @$$. So, they got a free peep show, I got nothing. I frequent this area on business as do my co-workers, and we will not stay here again. You better leave your car by your door and walk if you go anywhere! Or you will have visitors. And always use the bar locks, if there are any.More</t>
+  </si>
+  <si>
+    <t>HossLass</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55638-d73679-r7645356-Super_8_Cleburne-Cleburne_Texas.html</t>
@@ -1873,43 +2077,47 @@
       <c r="A2" t="n">
         <v>35622</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>50116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1933,50 +2141,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35622</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178512</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1996,50 +2208,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35622</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178513</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2053,50 +2269,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35622</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178514</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2114,50 +2334,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35622</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178515</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2175,50 +2399,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35622</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178516</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2242,50 +2470,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35622</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178517</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -2309,35 +2541,39 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35622</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>520</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -2345,10 +2581,10 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -2369,36 +2605,37 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35622</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178518</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -2406,10 +2643,10 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2430,51 +2667,52 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35622</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178519</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2492,56 +2730,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="X11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35622</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178520</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2563,56 +2805,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="X12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35622</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178521</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2634,56 +2880,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="X13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35622</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178522</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -2705,54 +2955,58 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="X14" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35622</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178523</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2774,56 +3028,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="X15" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35622</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178524</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2835,56 +3093,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35622</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178525</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2906,54 +3168,58 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X17" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35622</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178526</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O18" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2975,56 +3241,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X18" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y18" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35622</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178527</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3046,56 +3316,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X19" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35622</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>29814</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3107,56 +3381,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X20" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35622</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178528</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3168,54 +3446,58 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X21" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35622</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178529</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3237,56 +3519,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X22" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y22" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35622</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178530</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3308,56 +3594,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X23" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35622</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>118065</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3369,56 +3659,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X24" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35622</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178531</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3440,41 +3734,45 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="X25" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Y25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35622</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178532</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -3482,10 +3780,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="O26" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3506,51 +3804,52 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35622</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178533</v>
+      </c>
+      <c r="C27" t="s">
+        <v>222</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="L27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3568,50 +3867,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35622</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178534</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3635,50 +3938,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35622</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178535</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="L29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3696,50 +4003,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35622</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178536</v>
+      </c>
+      <c r="C30" t="s">
+        <v>242</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="J30" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="O30" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3757,50 +4068,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35622</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>36832</v>
+      </c>
+      <c r="C31" t="s">
+        <v>250</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="J31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="L31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3824,48 +4139,52 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35622</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178537</v>
+      </c>
+      <c r="C32" t="s">
+        <v>257</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="O32" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3881,50 +4200,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35622</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>178538</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3948,50 +4271,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35622</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178539</v>
+      </c>
+      <c r="C34" t="s">
+        <v>269</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="J34" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4015,50 +4342,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35622</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178540</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4074,56 +4405,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="X35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="Y35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35622</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178541</v>
+      </c>
+      <c r="C36" t="s">
+        <v>283</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="J36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4143,50 +4478,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35622</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>9856</v>
+      </c>
+      <c r="C37" t="s">
+        <v>289</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4210,50 +4549,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35622</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>178542</v>
+      </c>
+      <c r="C38" t="s">
+        <v>295</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="J38" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="K38" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4277,50 +4620,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35622</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178543</v>
+      </c>
+      <c r="C39" t="s">
+        <v>302</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="J39" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="O39" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4338,50 +4685,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35622</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>70058</v>
+      </c>
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="J40" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="K40" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4405,50 +4756,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35622</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178544</v>
+      </c>
+      <c r="C41" t="s">
+        <v>315</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="J41" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="K41" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4468,50 +4823,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35622</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>2163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>322</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="J42" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="K42" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="O42" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4535,50 +4894,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35622</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178545</v>
+      </c>
+      <c r="C43" t="s">
+        <v>328</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="K43" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="L43" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="O43" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4602,50 +4965,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35622</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>55119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>335</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="J44" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="K44" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="O44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4663,50 +5030,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35622</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178546</v>
+      </c>
+      <c r="C45" t="s">
+        <v>342</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="J45" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="K45" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="L45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="O45" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4730,50 +5101,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35622</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>178547</v>
+      </c>
+      <c r="C46" t="s">
+        <v>348</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="J46" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4793,50 +5168,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35622</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>7535</v>
+      </c>
+      <c r="C47" t="s">
+        <v>354</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="J47" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="K47" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="O47" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4850,41 +5229,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35622</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178548</v>
+      </c>
+      <c r="C48" t="s">
+        <v>361</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="J48" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -4913,50 +5296,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35622</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>98586</v>
+      </c>
+      <c r="C49" t="s">
+        <v>367</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="J49" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="K49" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="O49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4976,50 +5363,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35622</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178549</v>
+      </c>
+      <c r="C50" t="s">
+        <v>374</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="J50" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="K50" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="L50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5043,50 +5434,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35622</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>63405</v>
+      </c>
+      <c r="C51" t="s">
+        <v>381</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="J51" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="K51" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5110,50 +5505,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35622</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178535</v>
+      </c>
+      <c r="C52" t="s">
+        <v>242</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="J52" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5177,50 +5576,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>35622</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>178550</v>
+      </c>
+      <c r="C53" t="s">
+        <v>394</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="J53" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="K53" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="L53" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="O53" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5234,50 +5637,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>35622</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>178551</v>
+      </c>
+      <c r="C54" t="s">
+        <v>401</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="J54" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="K54" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="O54" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5291,50 +5698,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>35622</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>6262</v>
+      </c>
+      <c r="C55" t="s">
+        <v>408</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="J55" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="K55" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5358,50 +5769,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>35622</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178552</v>
+      </c>
+      <c r="C56" t="s">
+        <v>415</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="J56" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="K56" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5425,50 +5840,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>35622</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>17056</v>
+      </c>
+      <c r="C57" t="s">
+        <v>423</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="J57" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="K57" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="L57" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5492,50 +5911,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>35622</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>178553</v>
+      </c>
+      <c r="C58" t="s">
+        <v>430</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="J58" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="K58" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="L58" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="O58" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5559,50 +5982,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>35622</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178554</v>
+      </c>
+      <c r="C59" t="s">
+        <v>436</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="J59" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="K59" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="L59" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="O59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5626,50 +6053,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>35622</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>9568</v>
+      </c>
+      <c r="C60" t="s">
+        <v>444</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="J60" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="K60" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="O60" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5693,50 +6124,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>35622</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>178555</v>
+      </c>
+      <c r="C61" t="s">
+        <v>450</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="J61" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="K61" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="L61" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="O61" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5760,50 +6195,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>35622</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178556</v>
+      </c>
+      <c r="C62" t="s">
+        <v>456</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="J62" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="K62" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="L62" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5827,50 +6266,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>35622</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>178557</v>
+      </c>
+      <c r="C63" t="s">
+        <v>462</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="J63" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="K63" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="L63" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5894,50 +6337,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>35622</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>178558</v>
+      </c>
+      <c r="C64" t="s">
+        <v>468</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>407</v>
+        <v>469</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>408</v>
+        <v>470</v>
       </c>
       <c r="J64" t="s">
-        <v>409</v>
+        <v>471</v>
       </c>
       <c r="K64" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="L64" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -5961,41 +6408,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>35622</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178559</v>
+      </c>
+      <c r="C65" t="s">
+        <v>476</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="J65" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="K65" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="L65" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
@@ -6024,41 +6475,45 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>35622</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178560</v>
+      </c>
+      <c r="C66" t="s">
+        <v>482</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="J66" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="K66" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="L66" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
@@ -6087,50 +6542,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>35622</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>178561</v>
+      </c>
+      <c r="C67" t="s">
+        <v>489</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>426</v>
+        <v>491</v>
       </c>
       <c r="J67" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
       <c r="K67" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="L67" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="O67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6154,50 +6613,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>35622</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>6594</v>
+      </c>
+      <c r="C68" t="s">
+        <v>496</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="J68" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
       <c r="K68" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="L68" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="O68" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -6219,41 +6682,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>35622</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>178562</v>
+      </c>
+      <c r="C69" t="s">
+        <v>504</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="J69" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="K69" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="L69" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
@@ -6272,50 +6739,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>35622</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>178563</v>
+      </c>
+      <c r="C70" t="s">
+        <v>511</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="J70" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
       <c r="K70" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="L70" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="O70" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6339,7 +6810,7 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
